--- a/example/данные/лицей/реестр-уровней-образования.xlsx
+++ b/example/данные/лицей/реестр-уровней-образования.xlsx
@@ -34,19 +34,19 @@
     <t>среднее</t>
   </si>
   <si>
+    <t>НО</t>
+  </si>
+  <si>
+    <t>ОО</t>
+  </si>
+  <si>
+    <t>СО</t>
+  </si>
+  <si>
+    <t>Лет</t>
+  </si>
+  <si>
     <t>ДО</t>
-  </si>
-  <si>
-    <t>НО</t>
-  </si>
-  <si>
-    <t>ОО</t>
-  </si>
-  <si>
-    <t>СО</t>
-  </si>
-  <si>
-    <t>Лет</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -423,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -431,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -442,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
@@ -453,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>5</v>
@@ -464,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
